--- a/notes/AVI ELF II Final BOM.xlsx
+++ b/notes/AVI ELF II Final BOM.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwasson/Development/avi-elf-ii/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC2CA6AA-E462-E84D-B9A5-A18221288196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D742BF2-476F-A94F-9CEB-4505911A98E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="2500" windowWidth="32220" windowHeight="22300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="2440" windowWidth="32220" windowHeight="22300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVIELF2v1 BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="DigiKey.ca" sheetId="2" r:id="rId2"/>
+    <sheet name="Mouser.ca" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="272">
   <si>
     <t>A1</t>
   </si>
@@ -187,15 +189,9 @@
     <t>10K</t>
   </si>
   <si>
-    <t>R31, R34, R35</t>
-  </si>
-  <si>
     <t>2.2K</t>
   </si>
   <si>
-    <t>R32</t>
-  </si>
-  <si>
     <t>470R</t>
   </si>
   <si>
@@ -695,6 +691,153 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/sullins-connector-solutions/PREC040SAAN-RC/2774814</t>
+  </si>
+  <si>
+    <t>R31, R32</t>
+  </si>
+  <si>
+    <t>R34, R35</t>
+  </si>
+  <si>
+    <t>R31 was origninally spec'd for 2.2k but shoud be 470 ohm</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/onsemi-Fairchild/1N914B?qs=sGAEpiMZZMtbRapU8LlZDzCgIkNleXIZjCSZIvAdjSc%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/https://www.mouser.ca/ProductDetail/Texas-Instruments/SN74HC573AN?qs=%252BWCn1GN4mVzruISjDLpAxw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/https://www.mouser.ca/ProductDetail/Texas-Instruments/CD4016BE?qs=L4Mc90zKIpgI%252B7Li46bF8Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/https://www.mouser.ca/ProductDetail/Texas-Instruments/CD4023BE?qs=5h8QSfodyRgDHNYia77aew%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/CD74HC173E?qs=j01uVdFEFjELTUIKncHz%252Bg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/SN74HC00AN?qs=6ZVwTuetbD7YqMbSpl34ug%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/CD74HCT74E?qs=ZA235jQDfboKM%252BOEvlrfDA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/CD4013BE?qs=pt%2FIv5r0EPc2Chv9B9JKAA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Comchip-Technology/1N4001-G?qs=2qJf6qQ4IOKJYZQUWvVExw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/STMicroelectronics/1N5819?qs=sGAEpiMZZMtbRapU8LlZD%2Fd2BTlZ9HBYv9tjF5kt8qI%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/LM7805CT-NOPB?qs=OYMYEaN9QmBS2GvaX6GSkQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/CUI-Inc/V7805-2000R?qs=WyjlAZoYn51jf4NpQC3pwg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/ABRACON/AB-3.579545MHZ-B2?qs=A7YjigRBFZl%252BZCeHxwts5w%3D%3D</t>
+  </si>
+  <si>
+    <t>DigiKey: https://www.digikey.ca/en/products/detail/mornsun-america-llc/IB0512S-W75R3/16571407</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Kingbright/WP7113ID?qs=hyavMCx%252BcmDJhCThgY7pfQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Panasonic/ECE-A1VKA100B?qs=sGAEpiMZZMsh%252B1woXyUXj%2FCjDN34kA%252BzNH8IV1070Pk%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Wurth-Elektronik/860020475018?qs=0KOYDY2FL29%2F2GIHZNCdMQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Wurth-Elektronik/860020672005?qs=0KOYDY2FL29w5cS8aahRvQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Murata-Electronics/RCER71H104K0K1H03B?qs=Zt%252BKPUOg4of53jbypBpoRQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Murata-Electronics/RCE5C1H180J0DBH03A?qs=Zt%252BKPUOg4oe0KImv0CLFIg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Murata-Electronics/RCER71H331K0M1H03A?qs=Zt%252BKPUOg4od0Plr59sXaYA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Murata-Electronics/RCER71H154K1DBH03A?qs=Zt%252BKPUOg4ocsdlDaWBbrMA%3D%3D</t>
+  </si>
+  <si>
+    <t>10uf Electrolytic Radial Capacitor</t>
+  </si>
+  <si>
+    <t>Jameco Electronics: https://www.jameco.com/z/74C923-Major-Brands-20-Key-Keyboard-Encoder-DIP-20_44572.html</t>
+  </si>
+  <si>
+    <t>Jameco Electronics: https://www.jameco.com/z/HM62256LP-70-HITACHI-IC-62256LP-CMOS-SRAM-256K-Bit-32Kx8-70ns-Low-Power_82472.html</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Amphenol-FCI/68691-440HLF?qs=cPwqfQhQFYMYN3UF9G02MQ%3D%3D</t>
+  </si>
+  <si>
+    <t>DigiKey: https://www.digikey.ca/en/products/detail/sullins-connector-solutions/PPPC082LFBN-RC/810248</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/TE-Connectivity/2314878-4?qs=P1JMDcb91o7WkCUv19Mivg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/EDAC/345-086-520-202?qs=kP3P12TjBhsTrfJpP98Y5A%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/CUI-Devices/MJ-3536N?qs=WyjlAZoYn51vdgS3Tq1ykQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/CUI-Devices/RCJ-014?qs=WyjlAZoYn53hpijiyk9ZIA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/CUI-Devices/PJ-002BH?qs=WyjlAZoYn51nOX1h%2FqpLlg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/SEI-Stackpole/CF14JT330R?qs=FESYatJ8odL8jgcbJiLESA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/SEI-Stackpole/CF14JT1K00?qs=FESYatJ8odLLAkjsom%2FJYQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/SEI-Stackpole/CF14JT47K0?qs=FESYatJ8odKVS%252BsmTHTzYw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/SEI-Stackpole/CF14JT200R?qs=FESYatJ8odJ%2Flj3FwweRcQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/SEI-Stackpole/CF14JT10K0?qs=FESYatJ8odJcEE4HXxUVCA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/SEI-Stackpole/CF14JT2K20?qs=FESYatJ8odIUhJBtuDkv0g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/SEI-Stackpole/CF14JT470R?qs=FESYatJ8odKPSi5QyIvqiA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Bourns/4605X-101-223LF?qs=uIm7Mbr8JPUMjObm8ImyRg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Bourns/4609X-101-223LF?qs=9nA2MLoIC7lSuIK9u5MO%2FQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Bourns/4116R-1-121LF?qs=10P5Hhl%252BD7%2FiVs%252BU8BCs6Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/E-Switch/100SP1T1B4M2QE?qs=YXf4ACKMM4xJ0mJK%2FyIa1g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Grayhill/76SB08T?qs=ls7QRyWmRk5XdXgRWzYlvg%3D%3D</t>
+  </si>
+  <si>
+    <t>Amazon: https://www.amazon.ca/dp/B0BXZXZX74</t>
+  </si>
+  <si>
+    <t>5v 2A. Runs cooler with more current capacity</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1370,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1244,26 +1387,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1276,6 +1410,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1636,10 +1777,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72:XFD72"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1657,33 +1798,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1700,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -1715,7 +1856,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1729,10 +1870,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1746,10 +1887,10 @@
         <v>4016</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1763,10 +1904,10 @@
         <v>4023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1780,10 +1921,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>193</v>
+        <v>92</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -1806,30 +1947,30 @@
         <v>4050</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>205</v>
+      <c r="B9" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>193</v>
+        <v>105</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -1852,10 +1993,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1869,7 +2010,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -1878,7 +2019,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1892,13 +2033,13 @@
         <v>4049</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1912,10 +2053,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>193</v>
+        <v>93</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -1938,10 +2079,10 @@
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1955,10 +2096,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1972,10 +2113,10 @@
         <v>4013</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1983,12 +2124,12 @@
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
@@ -2003,10 +2144,10 @@
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2020,10 +2161,10 @@
         <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2037,50 +2178,50 @@
         <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>202</v>
+      <c r="B22" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="B23" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2088,44 +2229,43 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1">
         <v>3.58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>183</v>
+      <c r="B25" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="16"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2145,49 +2285,49 @@
         <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>200</v>
+      <c r="B29" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>191</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>201</v>
+      <c r="B30" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>193</v>
+      <c r="E30" s="14" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2196,7 +2336,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -2207,13 +2347,13 @@
         <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -2224,13 +2364,13 @@
         <v>1000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>6</v>
       </c>
@@ -2241,33 +2381,30 @@
         <v>26</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
-        <v>1</v>
-      </c>
-      <c r="B36" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -2278,13 +2415,13 @@
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -2295,13 +2432,13 @@
         <v>31</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -2312,13 +2449,13 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -2329,18 +2466,18 @@
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -2351,13 +2488,13 @@
         <v>330</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -2368,13 +2505,13 @@
         <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -2385,13 +2522,13 @@
         <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -2401,14 +2538,14 @@
       <c r="C46" s="1">
         <v>200</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>168</v>
+      <c r="D46" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -2419,27 +2556,27 @@
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>3</v>
       </c>
       <c r="B48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2447,16 +2584,19 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2464,16 +2604,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2481,16 +2621,16 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2498,16 +2638,16 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2515,42 +2655,42 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="1">
         <v>120</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>163</v>
+      <c r="D53" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="F55" s="11"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E56"/>
       <c r="F56" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -2560,17 +2700,17 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -2580,17 +2720,17 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -2600,17 +2740,17 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -2620,16 +2760,16 @@
         <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="F60" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D60" t="s">
-        <v>132</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -2645,11 +2785,11 @@
         <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -2664,28 +2804,31 @@
     </row>
     <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" spans="1:8" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
-        <v>1</v>
-      </c>
-      <c r="B64" s="8" t="s">
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>138</v>
-      </c>
+      <c r="G64"/>
+      <c r="H64"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
@@ -2695,13 +2838,13 @@
         <v>35</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
@@ -2711,17 +2854,17 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -2731,17 +2874,17 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -2750,73 +2893,73 @@
       <c r="A68" s="1">
         <v>5</v>
       </c>
-      <c r="B68" s="21" t="s">
-        <v>214</v>
+      <c r="B68" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>210</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>5</v>
       </c>
-      <c r="B69" s="21" t="s">
-        <v>216</v>
+      <c r="B69" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>210</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>4</v>
       </c>
-      <c r="B70" s="21" t="s">
-        <v>210</v>
+      <c r="B70" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>5</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2830,18 +2973,18 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2855,10 +2998,10 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -2871,8 +3014,8 @@
       <c r="C78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="23" t="s">
-        <v>219</v>
+      <c r="D78" s="18" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2930,4 +3073,2425 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73621EF0-655F-1847-9866-D65DA107FDFD}">
+  <dimension ref="A1:F78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="52.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="63.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="52.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4016</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4023</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4050</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4049</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4013</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1">
+        <v>330</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="1">
+        <v>200</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="1">
+        <v>120</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>17</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>5</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>5</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>4</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>5</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{7E56A9C8-0BD5-7443-ACD3-B1E1729D835A}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{FAF6826E-015B-C648-ABCF-28BF82982D16}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{E94834E6-BC29-2A4C-9DAB-B9911C093C16}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{62C906ED-EAC2-E944-929B-4E6A5356CDD7}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{6BDE8E48-C186-6D4F-8D67-42C67B2477A9}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{2AAA0722-7CE4-5F41-9F32-1C3D3B6CAA38}"/>
+    <hyperlink ref="F14" r:id="rId7" xr:uid="{54FD264C-D66B-6449-9D99-BA935654C5F4}"/>
+    <hyperlink ref="F15" r:id="rId8" xr:uid="{89FDD6A0-4D96-E644-8C67-EABF8B8A140D}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{DECB7ACA-EA17-D14B-B682-129C3B87CF1E}"/>
+    <hyperlink ref="F33" r:id="rId10" xr:uid="{475D521A-7932-BB49-B440-EFE3E8503F10}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{5B13DD80-BB7B-1B42-9EB1-ED0BFB0D4F6C}"/>
+    <hyperlink ref="F21" r:id="rId12" xr:uid="{B3C86151-8B7E-E04C-AF90-06F9AED466D9}"/>
+    <hyperlink ref="F20" r:id="rId13" xr:uid="{B72FDB02-B0A5-2145-A70D-2B63A9176B6A}"/>
+    <hyperlink ref="F34" r:id="rId14" xr:uid="{1F7C8EF3-91E1-624D-A8B1-8B7E9486F708}"/>
+    <hyperlink ref="F35" r:id="rId15" xr:uid="{732EF190-7C71-C846-9DCE-5AE8208E70A0}"/>
+    <hyperlink ref="F59" r:id="rId16" xr:uid="{00BEB6A0-A8B2-5641-97C2-D4F23886C3AF}"/>
+    <hyperlink ref="F56" r:id="rId17" xr:uid="{3831C7EE-C6D8-684F-815A-EC621980454F}"/>
+    <hyperlink ref="F58" r:id="rId18" xr:uid="{EAECB9BA-D3A4-9247-8B91-90C47D9DCF07}"/>
+    <hyperlink ref="F57" r:id="rId19" xr:uid="{359B401E-D0D7-E548-A295-C270A0A56560}"/>
+    <hyperlink ref="F61" r:id="rId20" xr:uid="{2C6D5F93-3E69-0F47-B09E-26C3EC0267A1}"/>
+    <hyperlink ref="F65" r:id="rId21" xr:uid="{CD6619E6-94F6-0841-BCE5-A44AD33542B4}"/>
+    <hyperlink ref="F64" r:id="rId22" xr:uid="{EF3648DF-B388-C743-BE1E-F9B0E51DBE77}"/>
+    <hyperlink ref="F25" r:id="rId23" xr:uid="{BE1A1F0B-4E1A-C748-A0BD-C4D91DAE5918}"/>
+    <hyperlink ref="F37" r:id="rId24" xr:uid="{73C30BEC-279F-8645-AE1B-3E875924AFCF}"/>
+    <hyperlink ref="F38" r:id="rId25" xr:uid="{13F52EDC-278B-6B41-A8C9-A318C51E974B}"/>
+    <hyperlink ref="F39" r:id="rId26" xr:uid="{0E80B445-BD61-094E-9983-FE7B44C6AE72}"/>
+    <hyperlink ref="F40" r:id="rId27" xr:uid="{ACFC7EAC-78E9-A54D-B34E-B5489AC8AAE0}"/>
+    <hyperlink ref="F36" r:id="rId28" xr:uid="{F8D8EEE8-E6F3-8947-BFA6-C41D97C9FB5C}"/>
+    <hyperlink ref="F51" r:id="rId29" xr:uid="{CC5DED62-7CDF-AF4B-A01B-8C16288CC664}"/>
+    <hyperlink ref="F52" r:id="rId30" xr:uid="{A4E3B9C6-7897-C645-A461-B68FE1666A43}"/>
+    <hyperlink ref="F53" r:id="rId31" xr:uid="{5A05D02E-DCF3-D84F-B6A5-4AE46B0F2FD1}"/>
+    <hyperlink ref="F50" r:id="rId32" xr:uid="{5297C3CF-BA15-E149-BA8F-6AF8B3A43621}"/>
+    <hyperlink ref="F49" r:id="rId33" xr:uid="{6C0D1ABD-99E9-DB4E-B44C-03E73BA15F84}"/>
+    <hyperlink ref="F44" r:id="rId34" xr:uid="{A0FD3493-943C-1140-BDB9-6CEC85034DE0}"/>
+    <hyperlink ref="F48" r:id="rId35" xr:uid="{4740A108-F5C8-CC4F-BF17-C67C838B777B}"/>
+    <hyperlink ref="F47" r:id="rId36" xr:uid="{DC135310-96D7-EA4A-8DD8-8A61F2907A9C}"/>
+    <hyperlink ref="F46" r:id="rId37" xr:uid="{6F130354-B267-B04B-AAB0-28960353593A}"/>
+    <hyperlink ref="F45" r:id="rId38" xr:uid="{17B6C829-BE23-3D46-8A6D-CDD25EAAEE77}"/>
+    <hyperlink ref="F43" r:id="rId39" xr:uid="{BC4D20A6-8782-314B-A922-CCA391A04385}"/>
+    <hyperlink ref="F24" r:id="rId40" xr:uid="{1EF516E1-F3A9-E541-B8AE-54E329D1D1F4}"/>
+    <hyperlink ref="F28" r:id="rId41" xr:uid="{A7DA2557-0EC9-F84A-A054-FE790728EA11}"/>
+    <hyperlink ref="F70" r:id="rId42" xr:uid="{F90D7835-495D-4D44-B8B3-105ED258CA6F}"/>
+    <hyperlink ref="F71" r:id="rId43" xr:uid="{D3A381FB-A448-1141-963C-9A0E3286AE47}"/>
+    <hyperlink ref="F68" r:id="rId44" xr:uid="{696913A6-B67F-9F4F-8E63-122EC832D06A}"/>
+    <hyperlink ref="F74" r:id="rId45" xr:uid="{5621087D-3130-A045-AA82-9287518AF8CA}"/>
+    <hyperlink ref="E60" r:id="rId46" display="https://www.amazon.ca/dp/B0BXZXZX74" xr:uid="{BF6675E3-FD3D-9146-BA0A-B753B4847DF7}"/>
+    <hyperlink ref="E11" r:id="rId47" xr:uid="{C380B678-A63B-104C-B5BD-BFE84E01A60E}"/>
+    <hyperlink ref="E3" r:id="rId48" xr:uid="{2241EE76-E036-5945-97DE-2381DEE9B631}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC75F21-A609-2048-BDDD-710CC6135C01}">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="52.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59" style="1" customWidth="1"/>
+    <col min="7" max="7" width="52.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4016</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4023</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4050</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4049</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4013</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1">
+        <v>330</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="1">
+        <v>200</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="1">
+        <v>120</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>17</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>5</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>4</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>5</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{B1B91FE5-8925-4E48-A6BC-088ED2C0EDAC}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{B2EB1379-F5DC-BB49-892E-C32B25F98BB5}"/>
+    <hyperlink ref="F15" r:id="rId3" xr:uid="{6C56DDE2-0976-6543-8A0F-5D3FFDA5B83C}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{432BCB34-3BF3-1849-B970-24D4546A1D5D}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{9FD7D349-08E3-0B4B-8216-5E02014C9E8A}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{B595F5C7-469B-524B-A048-054762485820}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{42F04EA5-995D-E341-9C65-EBFD250D5DC5}"/>
+    <hyperlink ref="F33" r:id="rId8" xr:uid="{56ECF150-93EF-F847-B978-5EE27D398D02}"/>
+    <hyperlink ref="F34" r:id="rId9" xr:uid="{6FDDCD46-12B3-6A4D-9E36-43FD20D54A04}"/>
+    <hyperlink ref="F37" r:id="rId10" xr:uid="{355BAA2F-86AD-0644-8504-7A4B8E3C0DC7}"/>
+    <hyperlink ref="F68" r:id="rId11" xr:uid="{A4C9B4E9-1F70-F84B-8490-F8983F88F379}"/>
+    <hyperlink ref="E60" r:id="rId12" display="https://www.amazon.ca/dp/B0BXZXZX74" xr:uid="{734827B6-518C-4E4D-9E05-81D620238D63}"/>
+    <hyperlink ref="F19" r:id="rId13" xr:uid="{3184D808-9D94-9B4A-B8B1-83DE3E119A25}"/>
+    <hyperlink ref="F20" r:id="rId14" xr:uid="{4DD7F1EB-3063-6944-A115-9CA9FAD84D56}"/>
+    <hyperlink ref="F21" r:id="rId15" xr:uid="{E16EABD4-DE42-AA4E-841A-6307B282C391}"/>
+    <hyperlink ref="F22" r:id="rId16" xr:uid="{727C0AC5-DBC0-D749-BF84-B96A9840E1EB}"/>
+    <hyperlink ref="F23" r:id="rId17" xr:uid="{784ACEA6-D303-BC44-A0D5-EF0C713391F2}"/>
+    <hyperlink ref="F24" r:id="rId18" xr:uid="{E395BFC6-AA4B-EE4E-9E8B-25F75CF29D51}"/>
+    <hyperlink ref="F28" r:id="rId19" xr:uid="{6D63D74D-422F-8749-A751-E090CAA51E53}"/>
+    <hyperlink ref="F35" r:id="rId20" xr:uid="{29A793FD-6E28-A34E-B721-336D1F95A9AC}"/>
+    <hyperlink ref="F36" r:id="rId21" xr:uid="{8CC8D205-85A6-A242-A35F-00292642FADF}"/>
+    <hyperlink ref="F38" r:id="rId22" xr:uid="{3742A2B9-96F0-3D4E-98EB-6C81E1FDE8DC}"/>
+    <hyperlink ref="F39" r:id="rId23" xr:uid="{3ABFCB19-CC8F-294A-8D84-D2BC24D1A4FA}"/>
+    <hyperlink ref="F40" r:id="rId24" xr:uid="{BFF36634-3E17-BB46-AE6C-778F3CFCA32F}"/>
+    <hyperlink ref="F43" r:id="rId25" xr:uid="{24A7560A-1367-4E40-A11A-E1C52CBB811D}"/>
+    <hyperlink ref="F44" r:id="rId26" xr:uid="{CC02F7FC-935D-6D4B-8718-5B8B5B271DA0}"/>
+    <hyperlink ref="F45" r:id="rId27" xr:uid="{05619425-093F-6C47-9239-DE7329D13B90}"/>
+    <hyperlink ref="F46" r:id="rId28" xr:uid="{BA8E1580-13B8-B64E-8920-A23B7C3539D9}"/>
+    <hyperlink ref="F47" r:id="rId29" xr:uid="{464E3CC1-CDF7-B446-AB58-8D3D1A0D2FF7}"/>
+    <hyperlink ref="F48" r:id="rId30" xr:uid="{44B5ACD2-B2BB-4A4B-93F1-21D794FB893B}"/>
+    <hyperlink ref="F49" r:id="rId31" xr:uid="{A44DF66B-299D-1847-9C2E-EF04CF9D823D}"/>
+    <hyperlink ref="F50" r:id="rId32" xr:uid="{E5EF4FD8-D060-8946-9F8D-AA5A71BCC094}"/>
+    <hyperlink ref="F51" r:id="rId33" xr:uid="{2131CD28-689A-A946-B2B4-E267EF57B645}"/>
+    <hyperlink ref="F52" r:id="rId34" xr:uid="{4CB910B4-662E-5D48-ABEF-A6FED1422267}"/>
+    <hyperlink ref="F53" r:id="rId35" xr:uid="{5374DE36-1C0D-A941-AF9E-1206E294BB03}"/>
+    <hyperlink ref="F56" r:id="rId36" xr:uid="{96971356-A998-5E46-9DAA-9D4560FE3DD2}"/>
+    <hyperlink ref="F57" r:id="rId37" xr:uid="{67EFE489-B1CB-0144-A285-AF702987DF97}"/>
+    <hyperlink ref="F58" r:id="rId38" xr:uid="{EF42387E-7ADC-734F-AEF3-E389A0C9C6A5}"/>
+    <hyperlink ref="F61" r:id="rId39" xr:uid="{CFB0AFC5-7094-7142-AFDA-F9B18938CA66}"/>
+    <hyperlink ref="F64" r:id="rId40" xr:uid="{19324757-9AE4-8245-A930-7776452337C2}"/>
+    <hyperlink ref="F65" r:id="rId41" xr:uid="{34C3D20A-BE96-4446-9F7E-95F5173C9EBC}"/>
+    <hyperlink ref="F66" r:id="rId42" xr:uid="{F9994AC7-0AA9-CA49-A62B-0062E81E0DB9}"/>
+    <hyperlink ref="F67" r:id="rId43" xr:uid="{3FFA008D-78A7-F544-BC42-5299CB653426}"/>
+    <hyperlink ref="F70" r:id="rId44" xr:uid="{10E337D2-29C8-9649-B477-630EF71E0D09}"/>
+    <hyperlink ref="F73" r:id="rId45" xr:uid="{C4428DAB-E98F-0940-89A8-7DB594885429}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/notes/AVI ELF II Final BOM.xlsx
+++ b/notes/AVI ELF II Final BOM.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwasson/Development/avi-elf-ii/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D742BF2-476F-A94F-9CEB-4505911A98E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D823D0B-7B99-054B-A1B0-992A583FA546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="2440" windowWidth="32220" windowHeight="22300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17640" yWindow="4960" windowWidth="42520" windowHeight="22300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AVIELF2v1 BOM" sheetId="1" r:id="rId1"/>
-    <sheet name="DigiKey.ca" sheetId="2" r:id="rId2"/>
+    <sheet name="DigiKey.ca" sheetId="2" r:id="rId1"/>
+    <sheet name="DigiKey.com" sheetId="4" r:id="rId2"/>
     <sheet name="Mouser.ca" sheetId="3" r:id="rId3"/>
+    <sheet name="Mouser.com" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="352">
   <si>
     <t>A1</t>
   </si>
@@ -261,9 +262,6 @@
     <t>Mouser</t>
   </si>
   <si>
-    <t>Jameco</t>
-  </si>
-  <si>
     <t>PART #</t>
   </si>
   <si>
@@ -273,9 +271,6 @@
     <t>PART</t>
   </si>
   <si>
-    <t>https://www.jameco.com/z/HM62256LP-70-HITACHI-IC-62256LP-CMOS-SRAM-256K-Bit-32Kx8-70ns-Low-Power_82472.html</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/texas-instruments/SN74HC573AN/277242</t>
   </si>
   <si>
@@ -312,9 +307,6 @@
     <t>20 Key Keyboard Encoder DIP-20</t>
   </si>
   <si>
-    <t>https://www.jameco.com/z/74C923-Major-Brands-20-Key-Keyboard-Encoder-DIP-20_44572.html</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/texas-instruments/CD4049UBE/67301</t>
   </si>
   <si>
@@ -417,9 +409,6 @@
     <t>Cherry type keyboard switch (Amazon 30 piece set)</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/dp/B0BXZXZX74</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/grayhill-inc/76SB08T/726235</t>
   </si>
   <si>
@@ -600,15 +589,9 @@
     <t>* Ebay or other surplus source</t>
   </si>
   <si>
-    <t>Jameco or Electronics Goldmine</t>
-  </si>
-  <si>
     <t>CY62256</t>
   </si>
   <si>
-    <t>Runs cooler with more current capacity</t>
-  </si>
-  <si>
     <t>16 pin F Dual Row Socket</t>
   </si>
   <si>
@@ -705,15 +688,6 @@
     <t>https://www.mouser.ca/ProductDetail/onsemi-Fairchild/1N914B?qs=sGAEpiMZZMtbRapU8LlZDzCgIkNleXIZjCSZIvAdjSc%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/https://www.mouser.ca/ProductDetail/Texas-Instruments/SN74HC573AN?qs=%252BWCn1GN4mVzruISjDLpAxw%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/https://www.mouser.ca/ProductDetail/Texas-Instruments/CD4016BE?qs=L4Mc90zKIpgI%252B7Li46bF8Q%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/https://www.mouser.ca/ProductDetail/Texas-Instruments/CD4023BE?qs=5h8QSfodyRgDHNYia77aew%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/CD74HC173E?qs=j01uVdFEFjELTUIKncHz%252Bg%3D%3D</t>
   </si>
   <si>
@@ -838,13 +812,280 @@
   </si>
   <si>
     <t>5v 2A. Runs cooler with more current capacity</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/SN74HC573AN/277242</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/CD4016BE/67251</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/CD4023BE/67265</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/CD4050BE/67303</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/CD74HC173E/1506733</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/CD4049UBE/67301</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/SN74HC00N/277209</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/CD74HCT74E/38762</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/CD4013BE/67245</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/onsemi/1N914/978749</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/onsemi/1N4001G/1485468</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stmicroelectronics/1N5819/1037326</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/LM7805CT-NOPB/3901929</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-inc/V7805-2000R/2352147</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/raltron-electronics/a-3-579545-18/10271744</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/mornsun-america-llc/IB0512S-W75R3/16571407</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sunled/XLUR12D/4745846</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ECA-1EM100B/2688676</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rubycon/25PX1000MEFCT810X16/3134863</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C320C104K5R5TA7317/6562447</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-beyschlag-draloric-bc-components/K180J15C0GF5TL2/286458</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-beyschlag-draloric-bc-components/K331K15X7RF5TL2/286523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/860020672005/5727088 </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C320C154K5R5TA/818052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT330R/1741399 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT1K00/1741314 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT47K0/1741444 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT200R/1741336 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT10K0/1741265 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT2K20/1741321 </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT470R/1741440</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/bourns-inc/4605X-101-223LF/3593674</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/bourns-inc/4609X-101-223LF/3593668</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/bourns-inc/4116R-1-121LF/1088613</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/e-switch/100SP1T1B4M2QE/378824</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cit-relay-and-switch/ANT11TFHQE/12503364</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/grayhill-inc/76SB08T/726235</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-devices/PJ-002BH/408447</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-devices/RCJ-014/408490</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-devices/MJ-3536N/281264</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/te-connectivity-amp-connectors/1-5530843-0/2310825</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/edac-inc/345-086-520-202/1294448</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/PPPC082LFBN-RC/810248</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/PPTC041LFBN-RC/810144</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/PREC040SAAN-RC/2774814</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/SN74HC573AN?qs=%252BWCn1GN4mVzruISjDLpAxw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/CD4016BE?qs=L4Mc90zKIpgI%252B7Li46bF8Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/CD4023BE?qs=5h8QSfodyRgDHNYia77aew%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/SN74HC573AN?qs=%252BWCn1GN4mVzruISjDLpAxw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/CD4016BE?qs=L4Mc90zKIpgI%252B7Li46bF8Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/CD4023BE?qs=5h8QSfodyRgDHNYia77aew%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/CD4050BE?qs=j%2FZo4ajzVJLKLpJvKsajlg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/CD74HC173E?qs=j01uVdFEFjELTUIKncHz%252Bg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/CD4049UBE?qs=D5pVkbrsqqLvQoWdk2gTTw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/SN74HC00AN?qs=6ZVwTuetbD7YqMbSpl34ug%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/CD74HCT74E?qs=ZA235jQDfboKM%252BOEvlrfDA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/CD4013BE?qs=pt%2FIv5r0EPc2Chv9B9JKAA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/onsemi-Fairchild/1N914B?qs=sGAEpiMZZMtbRapU8LlZDzCgIkNleXIZjCSZIvAdjSc%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Comchip-Technology/1N4001-G?qs=2qJf6qQ4IOKJYZQUWvVExw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/STMicroelectronics/1N5819?qs=sGAEpiMZZMtbRapU8LlZD%2Fd2BTlZ9HBYv9tjF5kt8qI%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/LM7805CT-NOPB?qs=OYMYEaN9QmBS2GvaX6GSkQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/CUI-Inc/V7805-2000R?qs=WyjlAZoYn51jf4NpQC3pwg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/ABRACON/AB-3.579545MHZ-B2?qs=A7YjigRBFZl%252BZCeHxwts5w%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Kingbright/WP7113ID?qs=hyavMCx%252BcmDJhCThgY7pfQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Panasonic/ECE-A1VKA100B?qs=sGAEpiMZZMsh%252B1woXyUXj%2FCjDN34kA%252BzNH8IV1070Pk%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Wurth-Elektronik/860020475018?qs=0KOYDY2FL29%2F2GIHZNCdMQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Murata-Electronics/RCER71H104K0K1H03B?qs=Zt%252BKPUOg4of53jbypBpoRQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Murata-Electronics/RCE5C1H180J0DBH03A?qs=Zt%252BKPUOg4oe0KImv0CLFIg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Murata-Electronics/RCER71H331K0M1H03A?qs=Zt%252BKPUOg4od0Plr59sXaYA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Wurth-Elektronik/860020672005?qs=0KOYDY2FL29w5cS8aahRvQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Murata-Electronics/RCER71H154K1DBH03A?qs=Zt%252BKPUOg4ocsdlDaWBbrMA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/CF14JT330R?qs=FESYatJ8odL8jgcbJiLESA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/CF14JT1K00?qs=FESYatJ8odLLAkjsom%2FJYQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/CF14JT47K0?qs=FESYatJ8odKVS%252BsmTHTzYw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/CF14JT200R?qs=FESYatJ8odJ%2Flj3FwweRcQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/CF14JT10K0?qs=FESYatJ8odJcEE4HXxUVCA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/CF14JT2K20?qs=FESYatJ8odIUhJBtuDkv0g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/CF14JT470R?qs=FESYatJ8odKPSi5QyIvqiA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/4605X-101-223LF?qs=uIm7Mbr8JPUMjObm8ImyRg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/4609X-101-223LF?qs=9nA2MLoIC7lSuIK9u5MO%2FQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/4116R-1-121LF?qs=10P5Hhl%252BD7%2FiVs%252BU8BCs6Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/E-Switch/100SP1T1B4M2QE?qs=YXf4ACKMM4xJ0mJK%2FyIa1g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Grayhill/76SB08T?qs=ls7QRyWmRk5XdXgRWzYlvg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/CUI-Devices/PJ-002BH?qs=WyjlAZoYn51nOX1h%2FqpLlg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/CUI-Devices/RCJ-014?qs=WyjlAZoYn53hpijiyk9ZIA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/CUI-Devices/MJ-3536N?qs=WyjlAZoYn51vdgS3Tq1ykQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/EDAC/345-086-520-202?qs=kP3P12TjBhsTrfJpP98Y5A%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/TE-Connectivity/2314878-4?qs=P1JMDcb91o7WkCUv19Mivg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Amphenol-FCI/68691-440HLF?qs=cPwqfQhQFYMYN3UF9G02MQ%3D%3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1015,8 +1256,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1208,6 +1474,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1370,7 +1642,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1412,12 +1684,38 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1774,1313 +2072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H78"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="52.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="63.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59" style="1" customWidth="1"/>
-    <col min="8" max="8" width="65.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="52.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4016</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4023</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4050</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4049</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4013</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3.58</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>2</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="1">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="1">
-        <v>10</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="1">
-        <v>330</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="1">
-        <v>200</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>3</v>
-      </c>
-      <c r="B48" t="s">
-        <v>224</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>223</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="1">
-        <v>120</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56"/>
-      <c r="F56" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56"/>
-      <c r="H56"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57"/>
-      <c r="F57" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G57"/>
-      <c r="H57"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58"/>
-      <c r="F58" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G58"/>
-      <c r="H58"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59"/>
-      <c r="F59" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G59"/>
-      <c r="H59"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>17</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" t="s">
-        <v>130</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G60"/>
-      <c r="H60"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61"/>
-      <c r="F61" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61"/>
-      <c r="H61"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62" s="4"/>
-      <c r="G62"/>
-      <c r="H62"/>
-    </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="F63" s="9"/>
-    </row>
-    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>1</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" t="s">
-        <v>134</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G64"/>
-      <c r="H64"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G65"/>
-      <c r="H65"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66"/>
-      <c r="F66" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66"/>
-      <c r="H66"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67"/>
-      <c r="F67" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G67"/>
-      <c r="H67"/>
-    </row>
-    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>5</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>5</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>4</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>5</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>8</v>
-      </c>
-      <c r="B74" t="s">
-        <v>220</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>2</v>
-      </c>
-      <c r="B77" t="s">
-        <v>123</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>1</v>
-      </c>
-      <c r="B78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F19" r:id="rId15" xr:uid="{A6299287-5C88-224C-A4C1-39BB77C726F3}"/>
-    <hyperlink ref="F21" r:id="rId16" xr:uid="{382DA8C5-AC2C-C844-A1D2-888ABAE6F444}"/>
-    <hyperlink ref="F20" r:id="rId17" xr:uid="{DEB1361D-68EA-FA47-8A30-06C45B35542F}"/>
-    <hyperlink ref="F34" r:id="rId18" xr:uid="{CDDC64E1-25EC-D344-8BA1-3DD19B321411}"/>
-    <hyperlink ref="F35" r:id="rId19" xr:uid="{95D158C7-DFF7-284D-9392-4594425D0AB6}"/>
-    <hyperlink ref="F59" r:id="rId20" xr:uid="{99277C08-5E01-1C43-A624-2C77A2324F47}"/>
-    <hyperlink ref="F56" r:id="rId21" xr:uid="{7A7509F7-4A55-0E49-B2EB-3857EAB0585C}"/>
-    <hyperlink ref="F58" r:id="rId22" xr:uid="{3AC4F1B5-D5E7-634B-AE2B-0DF9776ADC03}"/>
-    <hyperlink ref="F57" r:id="rId23" xr:uid="{C22F1251-1788-844B-9537-2B1569A3CDA4}"/>
-    <hyperlink ref="F60" r:id="rId24" xr:uid="{86288B2A-530A-EE40-8914-48D5E567D469}"/>
-    <hyperlink ref="F61" r:id="rId25" xr:uid="{E811AA6C-6A84-C14A-9906-B93007C229A5}"/>
-    <hyperlink ref="F65" r:id="rId26" xr:uid="{3A4854D6-3EFE-1A4D-818C-FF25F686F710}"/>
-    <hyperlink ref="F64" r:id="rId27" xr:uid="{B46E4ECD-78B2-034F-B7E1-AE4F07352853}"/>
-    <hyperlink ref="F25" r:id="rId28" xr:uid="{71EB20D8-7609-184A-80ED-414D95F5503B}"/>
-    <hyperlink ref="F37" r:id="rId29" xr:uid="{1CB2B5B4-719E-054E-A395-84D4123412E0}"/>
-    <hyperlink ref="F38" r:id="rId30" xr:uid="{BDA2AC05-985E-6D47-9292-756D66DF8A9F}"/>
-    <hyperlink ref="F39" r:id="rId31" xr:uid="{EB128220-020C-354A-B102-AFC71747BA45}"/>
-    <hyperlink ref="F40" r:id="rId32" xr:uid="{ECCC1ED4-758D-4949-B922-C498CAD69269}"/>
-    <hyperlink ref="F36" r:id="rId33" xr:uid="{9E16F675-A7A0-5540-9589-9B3D63E4DF29}"/>
-    <hyperlink ref="F51" r:id="rId34" xr:uid="{9234CF2B-663B-7C44-83A1-1B3F61A47EC3}"/>
-    <hyperlink ref="F52" r:id="rId35" xr:uid="{E47CD4A8-469A-1E48-BF26-E46E042115D6}"/>
-    <hyperlink ref="F53" r:id="rId36" xr:uid="{4B039781-0FE1-044C-9E84-29840B3D8997}"/>
-    <hyperlink ref="F50" r:id="rId37" xr:uid="{4394873A-D5BB-A148-86F2-49AC2D00618D}"/>
-    <hyperlink ref="F49" r:id="rId38" xr:uid="{B631FE36-0DF2-C642-BEBB-817C93D174B8}"/>
-    <hyperlink ref="F44" r:id="rId39" xr:uid="{107C3C19-0B29-784E-BBFE-5972AE6C56ED}"/>
-    <hyperlink ref="F48" r:id="rId40" xr:uid="{C5FC44F7-F1F4-C849-865E-CE6BE2D739C8}"/>
-    <hyperlink ref="F47" r:id="rId41" xr:uid="{1FD120C3-3BFE-B34A-94BD-E7C0E7445B6C}"/>
-    <hyperlink ref="F46" r:id="rId42" xr:uid="{391889CF-59C7-3A44-936A-FDC019F4BDC2}"/>
-    <hyperlink ref="F45" r:id="rId43" xr:uid="{C9BEA828-2C92-5B4F-8A0F-99337F149F47}"/>
-    <hyperlink ref="F43" r:id="rId44" xr:uid="{EDDA4026-6526-F948-AE36-7CED90F20483}"/>
-    <hyperlink ref="F24" r:id="rId45" xr:uid="{80451D99-F42A-3746-AAE2-2F180A4DAA42}"/>
-    <hyperlink ref="F28" r:id="rId46" xr:uid="{F36EE695-4BE4-0540-989F-5A2BA30EB994}"/>
-    <hyperlink ref="F70" r:id="rId47" xr:uid="{5EDDF526-FFC5-CA4F-B162-5A5A73086DB0}"/>
-    <hyperlink ref="F71" r:id="rId48" xr:uid="{457A6F08-8646-5042-87FF-7BC3EA1F46F8}"/>
-    <hyperlink ref="F68" r:id="rId49" xr:uid="{5529529B-D84C-0841-B00B-67F66CB747A7}"/>
-    <hyperlink ref="F74" r:id="rId50" xr:uid="{079F9A47-93DF-5F4B-BF16-0C52B9566678}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73621EF0-655F-1847-9866-D65DA107FDFD}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3090,25 +2086,25 @@
     <col min="3" max="3" width="28.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="53.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="63.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="103.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>77</v>
@@ -3116,7 +2112,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3131,13 +2127,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>250</v>
+        <v>97</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>241</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -3154,10 +2150,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3171,10 +2167,10 @@
         <v>4016</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3188,10 +2184,10 @@
         <v>4023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3205,10 +2201,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -3225,10 +2221,10 @@
         <v>4050</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3236,16 +2232,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -3262,10 +2258,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3279,10 +2275,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>249</v>
+        <v>93</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -3299,10 +2295,10 @@
         <v>4049</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3316,10 +2312,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -3336,10 +2332,10 @@
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3353,10 +2349,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3370,10 +2366,10 @@
         <v>4013</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3381,7 +2377,7 @@
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3399,10 +2395,10 @@
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3416,10 +2412,10 @@
         <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3433,10 +2429,10 @@
         <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3444,19 +2440,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3464,19 +2460,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3490,10 +2486,10 @@
         <v>3.58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3501,16 +2497,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3520,7 +2516,7 @@
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -3538,10 +2534,10 @@
         <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3549,16 +2545,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3566,21 +2562,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3598,10 +2594,10 @@
         <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3615,10 +2611,10 @@
         <v>1000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3632,10 +2628,10 @@
         <v>26</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3649,10 +2645,10 @@
         <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3666,10 +2662,10 @@
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3683,10 +2679,10 @@
         <v>31</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3700,10 +2696,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3717,15 +2713,15 @@
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3739,10 +2735,10 @@
         <v>330</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3756,10 +2752,10 @@
         <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3773,10 +2769,10 @@
         <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3790,10 +2786,10 @@
         <v>200</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3807,10 +2803,10 @@
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3818,16 +2814,16 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3835,19 +2831,19 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3861,10 +2857,10 @@
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3878,10 +2874,10 @@
         <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3895,10 +2891,10 @@
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3912,15 +2908,15 @@
         <v>120</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3941,7 +2937,7 @@
       </c>
       <c r="E56"/>
       <c r="F56" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -3959,7 +2955,7 @@
       </c>
       <c r="E57"/>
       <c r="F57" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3977,7 +2973,7 @@
       </c>
       <c r="E58"/>
       <c r="F58" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3995,7 +2991,7 @@
       </c>
       <c r="E59"/>
       <c r="F59" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4003,16 +2999,16 @@
         <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>270</v>
+        <v>127</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>261</v>
       </c>
       <c r="F60" s="4"/>
     </row>
@@ -4027,11 +3023,11 @@
         <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4042,7 +3038,7 @@
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4056,14 +3052,14 @@
         <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4077,10 +3073,10 @@
         <v>70</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4094,11 +3090,11 @@
         <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4112,11 +3108,11 @@
         <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4124,16 +3120,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4141,16 +3137,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4158,16 +3154,16 @@
         <v>4</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4175,21 +3171,21 @@
         <v>5</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4201,18 +3197,18 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4224,10 +3220,10 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4241,7 +3237,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4299,12 +3295,1351 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A04FA5-F073-FD48-97C7-69F53090A511}">
+  <dimension ref="A1:F78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="53.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="58.33203125" customWidth="1"/>
+    <col min="6" max="6" width="117.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12">
+        <v>4016</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4023</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12">
+        <v>4050</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>1</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12">
+        <v>4049</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>1</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>1</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>1</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="12">
+        <v>4013</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>12</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>1</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>3</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>1</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>1</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>1</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="12">
+        <v>3.58</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>2</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>1</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>2</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>1</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="12">
+        <v>10</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>1</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>6</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>1</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>1</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="12">
+        <v>10</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>1</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <v>1</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <v>1</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
+        <v>2</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="12">
+        <v>330</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
+        <v>1</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
+        <v>2</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <v>1</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="12">
+        <v>200</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
+        <v>2</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
+        <v>3</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
+        <v>1</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
+        <v>1</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
+        <v>2</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
+        <v>2</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="12">
+        <v>2</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="12">
+        <v>120</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="29"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="12">
+        <v>1</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="23"/>
+      <c r="F56" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
+        <v>1</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="23"/>
+      <c r="F57" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="12">
+        <v>1</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="23"/>
+      <c r="F58" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="12">
+        <v>1</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="23"/>
+      <c r="F59" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="12">
+        <v>17</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="12">
+        <v>1</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="23"/>
+      <c r="F61" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="29"/>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="12">
+        <v>1</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="23"/>
+      <c r="F64" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="12">
+        <v>1</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="12">
+        <v>1</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="23"/>
+      <c r="F66" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="12">
+        <v>1</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="23"/>
+      <c r="F67" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="12">
+        <v>5</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="12">
+        <v>5</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="12">
+        <v>4</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="12">
+        <v>5</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="12"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="12">
+        <v>8</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="12"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="12">
+        <v>2</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="12">
+        <v>1</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="https://www.jameco.com/z/HM62256LP-70-HITACHI-IC-62256LP-CMOS-SRAM-256K-Bit-32Kx8-70ns-Low-Power_82472.html" xr:uid="{6EB49B00-0D74-E941-8EA4-139C427346DA}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{34A3BDE7-0B5F-6948-A203-3714E8BA7716}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{EEFF6A63-0E2D-B040-8BD5-16EC03D7A353}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{63572AB1-5AE9-824D-83A2-762FB53EAB84}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{3DBFEF68-0DFE-CD4C-9719-36CA8B8DD22C}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{CFA576A3-7DE3-CA43-9434-2B4CF15CF61D}"/>
+    <hyperlink ref="E11" r:id="rId7" display="https://www.jameco.com/z/74C923-Major-Brands-20-Key-Keyboard-Encoder-DIP-20_44572.html" xr:uid="{3748A5D2-A14A-8441-AD0D-D7EA986FCC22}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{31BE350E-7C5A-D647-AF72-A4C37BF0B444}"/>
+    <hyperlink ref="F14" r:id="rId9" xr:uid="{1C51F977-DB2F-444B-AB26-B08B62996E1A}"/>
+    <hyperlink ref="F15" r:id="rId10" xr:uid="{A47389D2-D680-6D47-A6DE-261760B48FD5}"/>
+    <hyperlink ref="F16" r:id="rId11" xr:uid="{0EA55AC5-B258-9644-B376-72A19268ADE0}"/>
+    <hyperlink ref="F19" r:id="rId12" xr:uid="{26238E71-190E-5341-BA3E-4A63434BA8AA}"/>
+    <hyperlink ref="F20" r:id="rId13" xr:uid="{C7BA9CC4-ABA8-844F-94ED-D40622A1619C}"/>
+    <hyperlink ref="F21" r:id="rId14" xr:uid="{E7540032-E731-5243-9441-E92F95189296}"/>
+    <hyperlink ref="F24" r:id="rId15" xr:uid="{D42BAE41-95B2-3C40-8A56-42E73BE482F3}"/>
+    <hyperlink ref="F25" r:id="rId16" xr:uid="{CE7F6333-45DB-0840-9F89-559F58C51A60}"/>
+    <hyperlink ref="F28" r:id="rId17" xr:uid="{3796AD3D-ABC3-1043-A0A6-4D8FF775E8D4}"/>
+    <hyperlink ref="F33" r:id="rId18" xr:uid="{DB43DD14-5AB8-D74B-BE08-EDF6DFA619AC}"/>
+    <hyperlink ref="F34" r:id="rId19" xr:uid="{1A8E01EC-0618-7448-B40F-BF1A56A2F8D1}"/>
+    <hyperlink ref="F35" r:id="rId20" xr:uid="{3CF21534-7CEA-254F-9B61-8DCEFD31C57C}"/>
+    <hyperlink ref="F36" r:id="rId21" xr:uid="{7CF80AA4-A166-114F-8483-0000179C8953}"/>
+    <hyperlink ref="F37" r:id="rId22" xr:uid="{9DECEBA9-2E90-854B-BFFD-866C7655FB4C}"/>
+    <hyperlink ref="F38" r:id="rId23" xr:uid="{6B77C8E6-6DE4-2C44-AECE-25784E75B78E}"/>
+    <hyperlink ref="F39" r:id="rId24" xr:uid="{7EA8C681-0E68-4C4B-A5AE-9569ED9854C4}"/>
+    <hyperlink ref="F40" r:id="rId25" xr:uid="{1F9C052F-127E-944F-A036-F9739BD79DE4}"/>
+    <hyperlink ref="F43" r:id="rId26" xr:uid="{138E8AC5-0449-4A41-A562-42F7055B53E4}"/>
+    <hyperlink ref="F44" r:id="rId27" xr:uid="{A96E7578-6550-8742-8549-CE5E2584D8B8}"/>
+    <hyperlink ref="F45" r:id="rId28" xr:uid="{16575664-D92B-0E4C-8EE4-ABD0326ADB2E}"/>
+    <hyperlink ref="F46" r:id="rId29" xr:uid="{5D319424-4AA6-A143-9180-DB007A11C830}"/>
+    <hyperlink ref="F47" r:id="rId30" xr:uid="{D74AC43C-EA09-754A-922A-EBC442E7DC25}"/>
+    <hyperlink ref="F48" r:id="rId31" xr:uid="{229496A0-08C3-AA46-AB37-DCA14DD18140}"/>
+    <hyperlink ref="F49" r:id="rId32" xr:uid="{37FFCE13-2538-E04E-900E-4CD80415DA4A}"/>
+    <hyperlink ref="F50" r:id="rId33" xr:uid="{9D1AFB99-0519-4047-BF51-170D47520CAB}"/>
+    <hyperlink ref="F51" r:id="rId34" xr:uid="{D3E548EB-BF6A-FE41-86FD-2AEA348A7103}"/>
+    <hyperlink ref="F52" r:id="rId35" xr:uid="{AB209A43-B889-5B41-90C4-A5475893BACE}"/>
+    <hyperlink ref="F53" r:id="rId36" xr:uid="{DE5B2666-21E3-8840-9F3A-AA4C2C8871C6}"/>
+    <hyperlink ref="F56" r:id="rId37" xr:uid="{AB438D9C-E08F-4B49-8547-CEAA483508EB}"/>
+    <hyperlink ref="F57" r:id="rId38" xr:uid="{C8666E44-C7F4-7445-80C9-B099A55A189B}"/>
+    <hyperlink ref="F58" r:id="rId39" xr:uid="{3D1076C3-A1F8-3748-9149-619D22BB0D70}"/>
+    <hyperlink ref="F59" r:id="rId40" xr:uid="{066DA4F6-88E6-5142-A733-D3855E9D2D70}"/>
+    <hyperlink ref="E60" r:id="rId41" display="https://www.amazon.ca/dp/B0BXZXZX74" xr:uid="{86294129-E301-4A42-8651-A160E417DD92}"/>
+    <hyperlink ref="F61" r:id="rId42" xr:uid="{15A7C228-6152-7A4C-89CF-9C72450ECE14}"/>
+    <hyperlink ref="F64" r:id="rId43" xr:uid="{5DA68367-F0A7-9F4E-B2D0-7C2DA91ECD62}"/>
+    <hyperlink ref="F65" r:id="rId44" xr:uid="{91519883-ACEB-8147-8A8B-F7488FB58506}"/>
+    <hyperlink ref="F68" r:id="rId45" xr:uid="{B249DF89-14B7-664B-A411-43D5C6EFBEC0}"/>
+    <hyperlink ref="F70" r:id="rId46" xr:uid="{2A598C9C-9558-EA44-BA0F-D6C448C3C9C1}"/>
+    <hyperlink ref="F71" r:id="rId47" xr:uid="{6A0F1011-EAAC-464A-9EB0-5D8A2EFD938F}"/>
+    <hyperlink ref="F74" r:id="rId48" xr:uid="{F4175634-F68C-2B49-BF93-072CA316F895}"/>
+    <hyperlink ref="F22" r:id="rId49" xr:uid="{8EC0326F-49B1-8E4A-9DD3-FDE0BCC2304D}"/>
+    <hyperlink ref="F23" r:id="rId50" xr:uid="{0D51728A-47C9-0C46-9F58-5E74F480DA3F}"/>
+    <hyperlink ref="F66" r:id="rId51" xr:uid="{CA2D0495-4CC9-5A4F-9067-C3D39A04ADE5}"/>
+    <hyperlink ref="F67" r:id="rId52" xr:uid="{A8E68396-B9B5-FD49-9020-610F107379E8}"/>
+    <hyperlink ref="F69" r:id="rId53" xr:uid="{38C0DA80-A396-204A-AF96-ECC8D9E60756}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC75F21-A609-2048-BDDD-710CC6135C01}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4320,19 +4655,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>78</v>
@@ -4340,7 +4675,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4355,13 +4690,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -4378,10 +4713,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>227</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4395,10 +4730,10 @@
         <v>4016</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>228</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4412,10 +4747,10 @@
         <v>4023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>229</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4429,10 +4764,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -4449,10 +4784,10 @@
         <v>4050</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4460,16 +4795,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -4486,10 +4821,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4503,10 +4838,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -4523,10 +4858,10 @@
         <v>4049</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4540,10 +4875,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -4560,10 +4895,10 @@
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4577,10 +4912,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4594,15 +4929,15 @@
         <v>4013</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -4620,10 +4955,10 @@
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4637,10 +4972,10 @@
         <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4654,10 +4989,10 @@
         <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -4665,19 +5000,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -4685,19 +5020,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4711,10 +5046,10 @@
         <v>3.58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -4722,16 +5057,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -4740,7 +5075,7 @@
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -4758,10 +5093,10 @@
         <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -4769,16 +5104,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -4786,21 +5121,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -4818,10 +5153,10 @@
         <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -4835,10 +5170,10 @@
         <v>1000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -4852,10 +5187,10 @@
         <v>26</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -4869,10 +5204,10 @@
         <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -4886,10 +5221,10 @@
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -4903,10 +5238,10 @@
         <v>31</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -4920,10 +5255,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4937,15 +5272,15 @@
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4959,10 +5294,10 @@
         <v>330</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4976,10 +5311,10 @@
         <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4993,10 +5328,10 @@
         <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -5010,10 +5345,10 @@
         <v>200</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -5027,10 +5362,10 @@
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -5038,16 +5373,16 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -5055,19 +5390,19 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -5081,10 +5416,10 @@
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -5098,10 +5433,10 @@
         <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -5115,10 +5450,10 @@
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -5132,15 +5467,15 @@
         <v>120</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5160,7 +5495,7 @@
       </c>
       <c r="E56"/>
       <c r="F56" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -5178,7 +5513,7 @@
       </c>
       <c r="E57"/>
       <c r="F57" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -5196,7 +5531,7 @@
       </c>
       <c r="E58"/>
       <c r="F58" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -5220,16 +5555,16 @@
         <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>270</v>
+        <v>127</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="F60"/>
     </row>
@@ -5244,11 +5579,11 @@
         <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -5259,7 +5594,7 @@
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5272,14 +5607,14 @@
         <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -5293,10 +5628,10 @@
         <v>70</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -5310,11 +5645,11 @@
         <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -5328,11 +5663,11 @@
         <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5340,16 +5675,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -5357,16 +5692,16 @@
         <v>4</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5374,22 +5709,21 @@
         <v>5</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E70" s="19"/>
+        <v>198</v>
+      </c>
       <c r="F70" s="5" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -5401,18 +5735,18 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5424,10 +5758,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -5441,7 +5775,7 @@
         <v>22</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5491,6 +5825,1206 @@
     <hyperlink ref="F67" r:id="rId43" xr:uid="{3FFA008D-78A7-F544-BC42-5299CB653426}"/>
     <hyperlink ref="F70" r:id="rId44" xr:uid="{10E337D2-29C8-9649-B477-630EF71E0D09}"/>
     <hyperlink ref="F73" r:id="rId45" xr:uid="{C4428DAB-E98F-0940-89A8-7DB594885429}"/>
+    <hyperlink ref="F14" r:id="rId46" xr:uid="{6178BEFC-57C4-6C4B-8ABD-B7924740CF56}"/>
+    <hyperlink ref="F16" r:id="rId47" xr:uid="{C15DA262-5801-504F-A804-E2702C3FA4EF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FDEFEA-849D-5B4C-9A76-0C1C74BD1400}">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="52.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59" style="1" customWidth="1"/>
+    <col min="7" max="7" width="52.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4016</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4023</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4050</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4049</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4013</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1">
+        <v>330</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="1">
+        <v>200</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="1">
+        <v>120</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>17</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>5</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>4</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>5</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{512EF287-C9E5-4B4E-AF47-BED3274400F8}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{E015C4ED-4D2D-7C4C-8E3E-1F68D61C7326}"/>
+    <hyperlink ref="F15" r:id="rId3" xr:uid="{D84E220F-D81D-354F-8998-E06663FC769A}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{B780AFA3-6D22-D147-B1AD-E2C21144305A}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{B594D9CC-11A4-F448-9FC9-88246812BD35}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{69E55ADD-B1CD-9443-A32C-41B2082819D6}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{1AEB58AD-DEDA-2D4C-BB0C-8862D2AB75D8}"/>
+    <hyperlink ref="F33" r:id="rId8" xr:uid="{7889BEAF-C50B-1D4B-BB52-48F51081ECBF}"/>
+    <hyperlink ref="F34" r:id="rId9" xr:uid="{3A0FD0DB-CCC0-1544-B75B-C86AC010ABAE}"/>
+    <hyperlink ref="F37" r:id="rId10" xr:uid="{6AA490E9-9462-1040-9C82-BAF7DDF60B65}"/>
+    <hyperlink ref="F68" r:id="rId11" xr:uid="{87465506-CA09-6C4D-A47F-67561EFFC91D}"/>
+    <hyperlink ref="E60" r:id="rId12" display="https://www.amazon.ca/dp/B0BXZXZX74" xr:uid="{74649215-3B8A-8E4A-90F5-7EA859DAE9C7}"/>
+    <hyperlink ref="F19" r:id="rId13" xr:uid="{7F1925CE-A878-B84D-8B9D-2EDF84588C4F}"/>
+    <hyperlink ref="F20" r:id="rId14" xr:uid="{8C11ADA1-B7C7-DE4B-96DA-AF3636E55AC9}"/>
+    <hyperlink ref="F21" r:id="rId15" xr:uid="{DC199A2A-E186-174F-AD02-B47908B03B08}"/>
+    <hyperlink ref="F22" r:id="rId16" xr:uid="{BEC64087-604B-7042-B353-D8C9EF82C0AA}"/>
+    <hyperlink ref="F23" r:id="rId17" xr:uid="{6730DFD3-2F45-C241-89AE-EB0496B1E805}"/>
+    <hyperlink ref="F24" r:id="rId18" xr:uid="{E0F461F6-DDE0-3048-A6C0-AD13F7845367}"/>
+    <hyperlink ref="F28" r:id="rId19" xr:uid="{DF52B6F3-38B4-6D45-93AC-D4AC65830222}"/>
+    <hyperlink ref="F35" r:id="rId20" xr:uid="{BE1E278C-5DDA-3847-8D43-6673CB69FCCC}"/>
+    <hyperlink ref="F36" r:id="rId21" xr:uid="{3618E749-1D61-3C40-A126-B864C0B6BC51}"/>
+    <hyperlink ref="F38" r:id="rId22" xr:uid="{DB9D67F2-8232-BE47-9F43-2A9D45BC3C8E}"/>
+    <hyperlink ref="F39" r:id="rId23" xr:uid="{293CF2A3-3599-1349-B518-084ACEBC59C0}"/>
+    <hyperlink ref="F40" r:id="rId24" xr:uid="{9DD849DA-EAD4-9640-8A3C-0FAEDCD69F9C}"/>
+    <hyperlink ref="F43" r:id="rId25" xr:uid="{22990BAF-A6C2-A948-A2B3-62E3D17AA7B4}"/>
+    <hyperlink ref="F44" r:id="rId26" xr:uid="{B508E058-0494-F94B-B7C9-802BC013C6BC}"/>
+    <hyperlink ref="F45" r:id="rId27" xr:uid="{02E6822F-F243-5146-B48C-1777B41C6891}"/>
+    <hyperlink ref="F46" r:id="rId28" xr:uid="{C0355251-0EE2-E643-9873-841E99198B1E}"/>
+    <hyperlink ref="F47" r:id="rId29" xr:uid="{CEEC3131-3390-E648-87C5-B30E11D03501}"/>
+    <hyperlink ref="F48" r:id="rId30" xr:uid="{0C3E8352-3BE0-744B-96D1-CE3B14DFE60A}"/>
+    <hyperlink ref="F49" r:id="rId31" xr:uid="{10914DED-E7E3-9442-9C99-46FCCDC27E39}"/>
+    <hyperlink ref="F50" r:id="rId32" xr:uid="{8CFA513A-BBF6-6C40-9261-A736621524DD}"/>
+    <hyperlink ref="F51" r:id="rId33" xr:uid="{226F70EF-38DF-A149-B7BA-3F0F2E80A44A}"/>
+    <hyperlink ref="F52" r:id="rId34" xr:uid="{9CB3B2CA-71E8-2D4B-B532-91DDBBA1451E}"/>
+    <hyperlink ref="F53" r:id="rId35" xr:uid="{A5B8ABB3-10F4-3841-BC8D-880C8E395EF2}"/>
+    <hyperlink ref="F56" r:id="rId36" xr:uid="{90495942-F57A-224F-AD6C-00C5A540D19A}"/>
+    <hyperlink ref="F57" r:id="rId37" xr:uid="{8FA9A0C6-C49B-C140-8584-D80A81217700}"/>
+    <hyperlink ref="F58" r:id="rId38" xr:uid="{6B9C49BF-62C7-9745-90F2-5C2917EC2105}"/>
+    <hyperlink ref="F61" r:id="rId39" xr:uid="{9ABF930B-3068-E24A-9273-1091A8691EDD}"/>
+    <hyperlink ref="F64" r:id="rId40" xr:uid="{30C58EF6-F67D-E049-A826-9582D83027D1}"/>
+    <hyperlink ref="F65" r:id="rId41" xr:uid="{1B0B227D-633B-6F40-8C9E-1CB8E3BD05DB}"/>
+    <hyperlink ref="F66" r:id="rId42" xr:uid="{5994DA6C-DB00-C349-94CD-9DA7E5A02885}"/>
+    <hyperlink ref="F67" r:id="rId43" xr:uid="{8D9F7B07-506D-674E-86B3-1059BE7C4FC7}"/>
+    <hyperlink ref="F70" r:id="rId44" xr:uid="{51D0AC0F-5AEF-0F4A-BEA4-9E6FA88009F0}"/>
+    <hyperlink ref="F73" r:id="rId45" xr:uid="{A530C715-6C2C-1A49-998D-985256ECAA63}"/>
+    <hyperlink ref="F14" r:id="rId46" xr:uid="{0B8894E2-5A4B-D44C-9A65-1B5F55DD7354}"/>
+    <hyperlink ref="F16" r:id="rId47" xr:uid="{FD381F16-597B-3F43-AE90-E08FA703050E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes/AVI ELF II Final BOM.xlsx
+++ b/notes/AVI ELF II Final BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwasson/Development/avi-elf-ii/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D823D0B-7B99-054B-A1B0-992A583FA546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDEAB89-6033-4E4D-98C7-4F0070230B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="4960" windowWidth="42520" windowHeight="22300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15540" yWindow="4360" windowWidth="42520" windowHeight="22300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DigiKey.ca" sheetId="2" r:id="rId1"/>
@@ -2076,7 +2076,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
